--- a/media/toa-do.xlsx
+++ b/media/toa-do.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Map 01" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,87 +89,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -177,57 +96,15 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -235,23 +112,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,54 +137,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -333,7 +147,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,109 +160,32 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1045,10 +782,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1579,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1589,10 +1323,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2178,20 +1909,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2229,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2239,10 +1967,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2280,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2290,10 +2015,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2331,20 +2053,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2409,7 +2128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2419,10 +2138,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2487,20 +2203,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
